--- a/src/main/java/calocheck/excel/nutrientCriteria.xlsx
+++ b/src/main/java/calocheck/excel/nutrientCriteria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,6 +81,14 @@
   </si>
   <si>
     <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,52 +567,52 @@
   <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="11" width="10.75" customWidth="1"/>
+    <col min="1" max="11" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -631,21 +631,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="9">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="9">
-        <v>240</v>
+        <v>0.24</v>
       </c>
       <c r="J2" s="9">
-        <v>550</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -664,21 +664,21 @@
         <v>20</v>
       </c>
       <c r="H3" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="2">
-        <v>810</v>
+        <v>0.81</v>
       </c>
       <c r="J3" s="2">
-        <v>1900</v>
+        <v>1.9</v>
       </c>
       <c r="K3" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -697,21 +697,21 @@
         <v>20</v>
       </c>
       <c r="H4" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="2">
-        <v>810</v>
+        <v>0.81</v>
       </c>
       <c r="J4" s="2">
-        <v>1900</v>
+        <v>1.9</v>
       </c>
       <c r="K4" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -730,21 +730,21 @@
         <v>25</v>
       </c>
       <c r="H5" s="2">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
       <c r="K5" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -763,21 +763,21 @@
         <v>25</v>
       </c>
       <c r="H6" s="2">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
       <c r="K6" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -796,21 +796,21 @@
         <v>25</v>
       </c>
       <c r="H7" s="2">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
       <c r="K7" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -829,21 +829,21 @@
         <v>35</v>
       </c>
       <c r="H8" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J8" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K8" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -862,21 +862,21 @@
         <v>35</v>
       </c>
       <c r="H9" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I9" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K9" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -895,21 +895,21 @@
         <v>35</v>
       </c>
       <c r="H10" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I10" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K10" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -928,21 +928,21 @@
         <v>50</v>
       </c>
       <c r="H11" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J11" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K11" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -961,21 +961,21 @@
         <v>50</v>
       </c>
       <c r="H12" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J12" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K12" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -994,21 +994,21 @@
         <v>50</v>
       </c>
       <c r="H13" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J13" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K13" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -1027,21 +1027,21 @@
         <v>60</v>
       </c>
       <c r="H14" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J14" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K14" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -1060,21 +1060,21 @@
         <v>60</v>
       </c>
       <c r="H15" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K15" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -1093,21 +1093,21 @@
         <v>60</v>
       </c>
       <c r="H16" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K16" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -1126,21 +1126,21 @@
         <v>65</v>
       </c>
       <c r="H17" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I17" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J17" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K17" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -1159,21 +1159,21 @@
         <v>65</v>
       </c>
       <c r="H18" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I18" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K18" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -1192,21 +1192,21 @@
         <v>65</v>
       </c>
       <c r="H19" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I19" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J19" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K19" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
@@ -1225,21 +1225,21 @@
         <v>65</v>
       </c>
       <c r="H20" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I20" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J20" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K20" s="2">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
@@ -1258,21 +1258,21 @@
         <v>65</v>
       </c>
       <c r="H21" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K21" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
@@ -1291,21 +1291,21 @@
         <v>65</v>
       </c>
       <c r="H22" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J22" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K22" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
@@ -1324,21 +1324,21 @@
         <v>65</v>
       </c>
       <c r="H23" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J23" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K23" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
@@ -1357,21 +1357,21 @@
         <v>65</v>
       </c>
       <c r="H24" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I24" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J24" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K24" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
@@ -1390,21 +1390,21 @@
         <v>65</v>
       </c>
       <c r="H25" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I25" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J25" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K25" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
@@ -1423,21 +1423,21 @@
         <v>65</v>
       </c>
       <c r="H26" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J26" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K26" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -1456,21 +1456,21 @@
         <v>65</v>
       </c>
       <c r="H27" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J27" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K27" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
@@ -1489,21 +1489,21 @@
         <v>65</v>
       </c>
       <c r="H28" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J28" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K28" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
@@ -1522,21 +1522,21 @@
         <v>65</v>
       </c>
       <c r="H29" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J29" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K29" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
@@ -1555,21 +1555,21 @@
         <v>65</v>
       </c>
       <c r="H30" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I30" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J30" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K30" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
@@ -1588,21 +1588,21 @@
         <v>65</v>
       </c>
       <c r="H31" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J31" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K31" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
@@ -1621,21 +1621,21 @@
         <v>65</v>
       </c>
       <c r="H32" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I32" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J32" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K32" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -1654,21 +1654,21 @@
         <v>65</v>
       </c>
       <c r="H33" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J33" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K33" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
@@ -1687,21 +1687,21 @@
         <v>65</v>
       </c>
       <c r="H34" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J34" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K34" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
@@ -1720,21 +1720,21 @@
         <v>65</v>
       </c>
       <c r="H35" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J35" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K35" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1">
         <v>34</v>
@@ -1753,21 +1753,21 @@
         <v>65</v>
       </c>
       <c r="H36" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J36" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K36" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
@@ -1786,21 +1786,21 @@
         <v>65</v>
       </c>
       <c r="H37" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J37" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K37" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
@@ -1819,21 +1819,21 @@
         <v>65</v>
       </c>
       <c r="H38" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J38" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K38" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
@@ -1852,21 +1852,21 @@
         <v>65</v>
       </c>
       <c r="H39" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J39" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K39" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
@@ -1885,21 +1885,21 @@
         <v>65</v>
       </c>
       <c r="H40" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I40" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J40" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K40" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -1918,21 +1918,21 @@
         <v>65</v>
       </c>
       <c r="H41" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J41" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K41" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
@@ -1951,21 +1951,21 @@
         <v>65</v>
       </c>
       <c r="H42" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I42" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J42" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K42" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
@@ -1984,21 +1984,21 @@
         <v>65</v>
       </c>
       <c r="H43" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J43" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K43" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
@@ -2017,21 +2017,21 @@
         <v>65</v>
       </c>
       <c r="H44" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J44" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K44" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
@@ -2050,21 +2050,21 @@
         <v>65</v>
       </c>
       <c r="H45" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J45" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K45" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1">
         <v>44</v>
@@ -2083,21 +2083,21 @@
         <v>65</v>
       </c>
       <c r="H46" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I46" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J46" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K46" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
@@ -2116,21 +2116,21 @@
         <v>65</v>
       </c>
       <c r="H47" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J47" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K47" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1">
         <v>46</v>
@@ -2149,21 +2149,21 @@
         <v>65</v>
       </c>
       <c r="H48" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I48" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J48" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K48" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
         <v>47</v>
@@ -2182,21 +2182,21 @@
         <v>65</v>
       </c>
       <c r="H49" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J49" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K49" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
@@ -2215,21 +2215,21 @@
         <v>65</v>
       </c>
       <c r="H50" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I50" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J50" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K50" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
@@ -2248,21 +2248,21 @@
         <v>65</v>
       </c>
       <c r="H51" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I51" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J51" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K51" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
@@ -2281,21 +2281,21 @@
         <v>60</v>
       </c>
       <c r="H52" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I52" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J52" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K52" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
@@ -2314,21 +2314,21 @@
         <v>60</v>
       </c>
       <c r="H53" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I53" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J53" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K53" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1">
         <v>52</v>
@@ -2347,21 +2347,21 @@
         <v>60</v>
       </c>
       <c r="H54" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I54" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J54" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K54" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1">
         <v>53</v>
@@ -2380,21 +2380,21 @@
         <v>60</v>
       </c>
       <c r="H55" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I55" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J55" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K55" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
@@ -2413,21 +2413,21 @@
         <v>60</v>
       </c>
       <c r="H56" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I56" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J56" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K56" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
@@ -2446,21 +2446,21 @@
         <v>60</v>
       </c>
       <c r="H57" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I57" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J57" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K57" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1">
         <v>56</v>
@@ -2479,21 +2479,21 @@
         <v>60</v>
       </c>
       <c r="H58" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I58" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J58" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K58" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1">
         <v>57</v>
@@ -2512,21 +2512,21 @@
         <v>60</v>
       </c>
       <c r="H59" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I59" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J59" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K59" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1">
         <v>58</v>
@@ -2545,21 +2545,21 @@
         <v>60</v>
       </c>
       <c r="H60" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I60" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J60" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K60" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
         <v>59</v>
@@ -2578,21 +2578,21 @@
         <v>60</v>
       </c>
       <c r="H61" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I61" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J61" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K61" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
@@ -2611,21 +2611,21 @@
         <v>60</v>
       </c>
       <c r="H62" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I62" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J62" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K62" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1">
         <v>61</v>
@@ -2644,21 +2644,21 @@
         <v>60</v>
       </c>
       <c r="H63" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I63" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J63" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K63" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1">
         <v>62</v>
@@ -2677,21 +2677,21 @@
         <v>60</v>
       </c>
       <c r="H64" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I64" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J64" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K64" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1">
         <v>63</v>
@@ -2710,21 +2710,21 @@
         <v>60</v>
       </c>
       <c r="H65" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I65" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J65" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K65" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1">
         <v>64</v>
@@ -2743,21 +2743,21 @@
         <v>60</v>
       </c>
       <c r="H66" s="2">
-        <v>750</v>
+        <v>0.75</v>
       </c>
       <c r="I66" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J66" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K66" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1">
         <v>65</v>
@@ -2776,21 +2776,21 @@
         <v>60</v>
       </c>
       <c r="H67" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I67" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J67" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K67" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1">
         <v>66</v>
@@ -2809,21 +2809,21 @@
         <v>60</v>
       </c>
       <c r="H68" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I68" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J68" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K68" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1">
         <v>67</v>
@@ -2842,21 +2842,21 @@
         <v>60</v>
       </c>
       <c r="H69" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I69" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J69" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K69" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1">
         <v>68</v>
@@ -2875,21 +2875,21 @@
         <v>60</v>
       </c>
       <c r="H70" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I70" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J70" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K70" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1">
         <v>69</v>
@@ -2908,21 +2908,21 @@
         <v>60</v>
       </c>
       <c r="H71" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I71" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J71" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K71" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1">
         <v>70</v>
@@ -2941,21 +2941,21 @@
         <v>60</v>
       </c>
       <c r="H72" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I72" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J72" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K72" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1">
         <v>71</v>
@@ -2974,21 +2974,21 @@
         <v>60</v>
       </c>
       <c r="H73" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I73" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J73" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K73" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
         <v>72</v>
@@ -3007,21 +3007,21 @@
         <v>60</v>
       </c>
       <c r="H74" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I74" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J74" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K74" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1">
         <v>73</v>
@@ -3040,21 +3040,21 @@
         <v>60</v>
       </c>
       <c r="H75" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I75" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J75" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K75" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1">
         <v>74</v>
@@ -3073,21 +3073,21 @@
         <v>60</v>
       </c>
       <c r="H76" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I76" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J76" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K76" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
         <v>75</v>
@@ -3105,22 +3105,22 @@
       <c r="G77" s="1">
         <v>60</v>
       </c>
-      <c r="H77" s="1">
-        <v>700</v>
+      <c r="H77" s="2">
+        <v>0.7</v>
       </c>
       <c r="I77" s="1">
-        <v>1100</v>
-      </c>
-      <c r="J77" s="1">
-        <v>3500</v>
-      </c>
-      <c r="K77" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3139,21 +3139,21 @@
         <v>35</v>
       </c>
       <c r="H78" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I78" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J78" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K78" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B79" s="1">
         <v>7</v>
@@ -3172,21 +3172,21 @@
         <v>35</v>
       </c>
       <c r="H79" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I79" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J79" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K79" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B80" s="1">
         <v>8</v>
@@ -3205,21 +3205,21 @@
         <v>35</v>
       </c>
       <c r="H80" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I80" s="2">
-        <v>1200</v>
+        <v>1.2</v>
       </c>
       <c r="J80" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="K80" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B81" s="1">
         <v>9</v>
@@ -3238,21 +3238,21 @@
         <v>45</v>
       </c>
       <c r="H81" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I81" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J81" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K81" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>10</v>
@@ -3271,21 +3271,21 @@
         <v>45</v>
       </c>
       <c r="H82" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I82" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J82" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K82" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>11</v>
@@ -3304,21 +3304,21 @@
         <v>45</v>
       </c>
       <c r="H83" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I83" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J83" s="2">
-        <v>3400</v>
+        <v>3.4</v>
       </c>
       <c r="K83" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1">
         <v>12</v>
@@ -3337,21 +3337,21 @@
         <v>55</v>
       </c>
       <c r="H84" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I84" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J84" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K84" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1">
         <v>13</v>
@@ -3370,21 +3370,21 @@
         <v>55</v>
       </c>
       <c r="H85" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I85" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J85" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K85" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1">
         <v>14</v>
@@ -3403,21 +3403,21 @@
         <v>55</v>
       </c>
       <c r="H86" s="2">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="I86" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J86" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K86" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
         <v>15</v>
@@ -3436,21 +3436,21 @@
         <v>55</v>
       </c>
       <c r="H87" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I87" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J87" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K87" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1">
         <v>16</v>
@@ -3469,21 +3469,21 @@
         <v>55</v>
       </c>
       <c r="H88" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I88" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J88" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K88" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1">
         <v>17</v>
@@ -3502,21 +3502,21 @@
         <v>55</v>
       </c>
       <c r="H89" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I89" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J89" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K89" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1">
         <v>18</v>
@@ -3535,21 +3535,21 @@
         <v>55</v>
       </c>
       <c r="H90" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I90" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J90" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K90" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1">
         <v>19</v>
@@ -3568,21 +3568,21 @@
         <v>55</v>
       </c>
       <c r="H91" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I91" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J91" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K91" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
         <v>20</v>
@@ -3601,21 +3601,21 @@
         <v>55</v>
       </c>
       <c r="H92" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I92" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J92" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K92" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B93" s="1">
         <v>21</v>
@@ -3634,21 +3634,21 @@
         <v>55</v>
       </c>
       <c r="H93" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I93" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J93" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K93" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B94" s="1">
         <v>22</v>
@@ -3667,21 +3667,21 @@
         <v>55</v>
       </c>
       <c r="H94" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I94" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J94" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K94" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1">
         <v>23</v>
@@ -3700,21 +3700,21 @@
         <v>55</v>
       </c>
       <c r="H95" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I95" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J95" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K95" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B96" s="1">
         <v>24</v>
@@ -3733,21 +3733,21 @@
         <v>55</v>
       </c>
       <c r="H96" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I96" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J96" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K96" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -3766,21 +3766,21 @@
         <v>55</v>
       </c>
       <c r="H97" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I97" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J97" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K97" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1">
         <v>26</v>
@@ -3799,21 +3799,21 @@
         <v>55</v>
       </c>
       <c r="H98" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I98" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J98" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K98" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B99" s="1">
         <v>27</v>
@@ -3832,21 +3832,21 @@
         <v>55</v>
       </c>
       <c r="H99" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I99" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J99" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K99" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1">
         <v>28</v>
@@ -3865,21 +3865,21 @@
         <v>55</v>
       </c>
       <c r="H100" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I100" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J100" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K100" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B101" s="1">
         <v>29</v>
@@ -3898,21 +3898,21 @@
         <v>55</v>
       </c>
       <c r="H101" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I101" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J101" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K101" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B102" s="1">
         <v>30</v>
@@ -3931,21 +3931,21 @@
         <v>50</v>
       </c>
       <c r="H102" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I102" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J102" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K102" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B103" s="1">
         <v>31</v>
@@ -3964,21 +3964,21 @@
         <v>50</v>
       </c>
       <c r="H103" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I103" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J103" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K103" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B104" s="1">
         <v>32</v>
@@ -3997,21 +3997,21 @@
         <v>50</v>
       </c>
       <c r="H104" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I104" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J104" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K104" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1">
         <v>33</v>
@@ -4030,21 +4030,21 @@
         <v>50</v>
       </c>
       <c r="H105" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I105" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J105" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K105" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B106" s="1">
         <v>34</v>
@@ -4063,21 +4063,21 @@
         <v>50</v>
       </c>
       <c r="H106" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I106" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J106" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K106" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B107" s="1">
         <v>35</v>
@@ -4096,21 +4096,21 @@
         <v>50</v>
       </c>
       <c r="H107" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I107" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J107" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K107" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B108" s="1">
         <v>36</v>
@@ -4129,21 +4129,21 @@
         <v>50</v>
       </c>
       <c r="H108" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I108" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J108" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K108" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B109" s="1">
         <v>37</v>
@@ -4162,21 +4162,21 @@
         <v>50</v>
       </c>
       <c r="H109" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I109" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J109" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K109" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B110" s="1">
         <v>38</v>
@@ -4195,21 +4195,21 @@
         <v>50</v>
       </c>
       <c r="H110" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I110" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J110" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K110" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B111" s="1">
         <v>39</v>
@@ -4228,21 +4228,21 @@
         <v>50</v>
       </c>
       <c r="H111" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I111" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J111" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K111" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B112" s="1">
         <v>40</v>
@@ -4261,21 +4261,21 @@
         <v>50</v>
       </c>
       <c r="H112" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I112" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J112" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K112" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B113" s="1">
         <v>41</v>
@@ -4294,21 +4294,21 @@
         <v>50</v>
       </c>
       <c r="H113" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I113" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J113" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K113" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B114" s="1">
         <v>42</v>
@@ -4327,21 +4327,21 @@
         <v>50</v>
       </c>
       <c r="H114" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I114" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J114" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K114" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B115" s="1">
         <v>43</v>
@@ -4360,21 +4360,21 @@
         <v>50</v>
       </c>
       <c r="H115" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I115" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J115" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K115" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1">
         <v>44</v>
@@ -4393,21 +4393,21 @@
         <v>50</v>
       </c>
       <c r="H116" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I116" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J116" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K116" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B117" s="1">
         <v>45</v>
@@ -4426,21 +4426,21 @@
         <v>50</v>
       </c>
       <c r="H117" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I117" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J117" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K117" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B118" s="1">
         <v>46</v>
@@ -4459,21 +4459,21 @@
         <v>50</v>
       </c>
       <c r="H118" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I118" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J118" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K118" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B119" s="1">
         <v>47</v>
@@ -4492,21 +4492,21 @@
         <v>50</v>
       </c>
       <c r="H119" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I119" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J119" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K119" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B120" s="1">
         <v>48</v>
@@ -4525,21 +4525,21 @@
         <v>50</v>
       </c>
       <c r="H120" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I120" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J120" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K120" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B121" s="1">
         <v>49</v>
@@ -4558,21 +4558,21 @@
         <v>50</v>
       </c>
       <c r="H121" s="2">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="I121" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J121" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K121" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B122" s="1">
         <v>50</v>
@@ -4591,21 +4591,21 @@
         <v>50</v>
       </c>
       <c r="H122" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I122" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J122" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K122" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B123" s="1">
         <v>51</v>
@@ -4624,21 +4624,21 @@
         <v>50</v>
       </c>
       <c r="H123" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I123" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J123" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K123" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B124" s="1">
         <v>52</v>
@@ -4657,21 +4657,21 @@
         <v>50</v>
       </c>
       <c r="H124" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I124" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J124" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K124" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B125" s="1">
         <v>53</v>
@@ -4690,21 +4690,21 @@
         <v>50</v>
       </c>
       <c r="H125" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I125" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J125" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K125" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B126" s="1">
         <v>54</v>
@@ -4723,21 +4723,21 @@
         <v>50</v>
       </c>
       <c r="H126" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I126" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J126" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K126" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B127" s="1">
         <v>55</v>
@@ -4756,21 +4756,21 @@
         <v>50</v>
       </c>
       <c r="H127" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I127" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J127" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K127" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B128" s="1">
         <v>56</v>
@@ -4789,21 +4789,21 @@
         <v>50</v>
       </c>
       <c r="H128" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I128" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J128" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K128" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B129" s="1">
         <v>57</v>
@@ -4822,21 +4822,21 @@
         <v>50</v>
       </c>
       <c r="H129" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I129" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J129" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K129" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B130" s="1">
         <v>58</v>
@@ -4855,21 +4855,21 @@
         <v>50</v>
       </c>
       <c r="H130" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I130" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J130" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K130" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B131" s="1">
         <v>59</v>
@@ -4888,21 +4888,21 @@
         <v>50</v>
       </c>
       <c r="H131" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I131" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J131" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K131" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B132" s="1">
         <v>60</v>
@@ -4921,21 +4921,21 @@
         <v>50</v>
       </c>
       <c r="H132" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I132" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J132" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K132" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B133" s="1">
         <v>61</v>
@@ -4954,21 +4954,21 @@
         <v>50</v>
       </c>
       <c r="H133" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I133" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J133" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K133" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1">
         <v>62</v>
@@ -4987,21 +4987,21 @@
         <v>50</v>
       </c>
       <c r="H134" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I134" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J134" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K134" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B135" s="1">
         <v>63</v>
@@ -5020,21 +5020,21 @@
         <v>50</v>
       </c>
       <c r="H135" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I135" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J135" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K135" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B136" s="1">
         <v>64</v>
@@ -5053,21 +5053,21 @@
         <v>50</v>
       </c>
       <c r="H136" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I136" s="2">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="J136" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K136" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B137" s="1">
         <v>65</v>
@@ -5086,21 +5086,21 @@
         <v>50</v>
       </c>
       <c r="H137" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I137" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J137" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K137" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B138" s="1">
         <v>66</v>
@@ -5119,21 +5119,21 @@
         <v>50</v>
       </c>
       <c r="H138" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I138" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J138" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K138" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B139" s="1">
         <v>67</v>
@@ -5152,21 +5152,21 @@
         <v>50</v>
       </c>
       <c r="H139" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I139" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J139" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K139" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B140" s="1">
         <v>68</v>
@@ -5185,21 +5185,21 @@
         <v>50</v>
       </c>
       <c r="H140" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I140" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J140" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K140" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B141" s="1">
         <v>69</v>
@@ -5218,21 +5218,21 @@
         <v>50</v>
       </c>
       <c r="H141" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I141" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J141" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K141" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B142" s="1">
         <v>70</v>
@@ -5251,21 +5251,21 @@
         <v>50</v>
       </c>
       <c r="H142" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I142" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J142" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K142" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B143" s="1">
         <v>71</v>
@@ -5284,21 +5284,21 @@
         <v>50</v>
       </c>
       <c r="H143" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I143" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J143" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K143" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B144" s="1">
         <v>72</v>
@@ -5317,21 +5317,21 @@
         <v>50</v>
       </c>
       <c r="H144" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I144" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J144" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K144" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B145" s="1">
         <v>73</v>
@@ -5350,21 +5350,21 @@
         <v>50</v>
       </c>
       <c r="H145" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I145" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J145" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K145" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B146" s="1">
         <v>74</v>
@@ -5383,21 +5383,21 @@
         <v>50</v>
       </c>
       <c r="H146" s="2">
-        <v>800</v>
+        <v>0.8</v>
       </c>
       <c r="I146" s="2">
-        <v>1300</v>
+        <v>1.3</v>
       </c>
       <c r="J146" s="2">
-        <v>3500</v>
+        <v>3.5</v>
       </c>
       <c r="K146" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B147" s="1">
         <v>75</v>
@@ -5415,17 +5415,17 @@
       <c r="G147" s="1">
         <v>50</v>
       </c>
-      <c r="H147" s="1">
-        <v>800</v>
+      <c r="H147" s="2">
+        <v>0.8</v>
       </c>
       <c r="I147" s="1">
-        <v>1100</v>
-      </c>
-      <c r="J147" s="1">
-        <v>3500</v>
-      </c>
-      <c r="K147" s="1">
-        <v>280</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J147" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/calocheck/excel/nutrientCriteria.xlsx
+++ b/src/main/java/calocheck/excel/nutrientCriteria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>male</t>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>female</t>
+    <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,16 +566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="10.69921875" customWidth="1"/>
+    <col min="1" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>13</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>14</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>14</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>14</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>14</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>14</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>14</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>14</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>14</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>14</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>14</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>14</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>14</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>14</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>14</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>14</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>14</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>14</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>14</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>14</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>14</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>14</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>14</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>14</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>14</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>14</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>14</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>14</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>14</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>14</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>14</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>14</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>14</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>14</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>14</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>14</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>14</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>14</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>14</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>14</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>14</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>14</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>14</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>14</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>14</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>14</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>14</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>14</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>14</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>14</v>
       </c>

--- a/src/main/java/calocheck/excel/nutrientCriteria.xlsx
+++ b/src/main/java/calocheck/excel/nutrientCriteria.xlsx
@@ -556,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
